--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H2">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I2">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J2">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N2">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O2">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P2">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q2">
-        <v>698.8973423629369</v>
+        <v>649.9388037997043</v>
       </c>
       <c r="R2">
-        <v>6290.076081266432</v>
+        <v>5849.449234197337</v>
       </c>
       <c r="S2">
-        <v>0.02251618595551784</v>
+        <v>0.01844712777362606</v>
       </c>
       <c r="T2">
-        <v>0.02251618595551783</v>
+        <v>0.01844712777362606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H3">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I3">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J3">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q3">
-        <v>155.0807589593889</v>
+        <v>125.9017327261389</v>
       </c>
       <c r="R3">
-        <v>1395.7268306345</v>
+        <v>1133.11559453525</v>
       </c>
       <c r="S3">
-        <v>0.004996194713012853</v>
+        <v>0.003573452357271085</v>
       </c>
       <c r="T3">
-        <v>0.004996194713012852</v>
+        <v>0.003573452357271085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H4">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I4">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J4">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N4">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q4">
-        <v>26.29895121643689</v>
+        <v>18.82166485385889</v>
       </c>
       <c r="R4">
-        <v>236.690560947932</v>
+        <v>169.39498368473</v>
       </c>
       <c r="S4">
-        <v>0.0008472661721996948</v>
+        <v>0.0005342128434887269</v>
       </c>
       <c r="T4">
-        <v>0.0008472661721996944</v>
+        <v>0.0005342128434887269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H5">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I5">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J5">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N5">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O5">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P5">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q5">
-        <v>11.92162378882222</v>
+        <v>8.892658988956667</v>
       </c>
       <c r="R5">
-        <v>107.2946140994</v>
+        <v>80.03393090061</v>
       </c>
       <c r="S5">
-        <v>0.0003840757173482726</v>
+        <v>0.0002523991730567952</v>
       </c>
       <c r="T5">
-        <v>0.0003840757173482725</v>
+        <v>0.0002523991730567952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H6">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I6">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J6">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N6">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q6">
-        <v>20.27997608630933</v>
+        <v>21.87576961325444</v>
       </c>
       <c r="R6">
-        <v>182.519784776784</v>
+        <v>196.88192651929</v>
       </c>
       <c r="S6">
-        <v>0.0006533544843495332</v>
+        <v>0.0006208970980696734</v>
       </c>
       <c r="T6">
-        <v>0.000653354484349533</v>
+        <v>0.0006208970980696734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J7">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N7">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O7">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P7">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q7">
-        <v>22114.20664478296</v>
+        <v>25331.25179573395</v>
       </c>
       <c r="R7">
-        <v>199027.8598030466</v>
+        <v>227981.2661616055</v>
       </c>
       <c r="S7">
-        <v>0.7124473923297706</v>
+        <v>0.7189735953753058</v>
       </c>
       <c r="T7">
-        <v>0.7124473923297704</v>
+        <v>0.7189735953753057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J8">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q8">
         <v>4906.998127454277</v>
@@ -948,10 +948,10 @@
         <v>44162.9831470885</v>
       </c>
       <c r="S8">
-        <v>0.1580874266134533</v>
+        <v>0.1392746838823752</v>
       </c>
       <c r="T8">
-        <v>0.1580874266134532</v>
+        <v>0.1392746838823752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J9">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N9">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q9">
-        <v>832.1400103984618</v>
+        <v>733.5711129119576</v>
       </c>
       <c r="R9">
-        <v>7489.260093586156</v>
+        <v>6602.140016207619</v>
       </c>
       <c r="S9">
-        <v>0.02680882882142711</v>
+        <v>0.02082085262768567</v>
       </c>
       <c r="T9">
-        <v>0.0268088288214271</v>
+        <v>0.02082085262768567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J10">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N10">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O10">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P10">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q10">
-        <v>377.2188503622444</v>
+        <v>346.5898368675933</v>
       </c>
       <c r="R10">
-        <v>3394.9696532602</v>
+        <v>3119.30853180834</v>
       </c>
       <c r="S10">
-        <v>0.01215275730190467</v>
+        <v>0.009837213855147905</v>
       </c>
       <c r="T10">
-        <v>0.01215275730190467</v>
+        <v>0.009837213855147905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J11">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N11">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q11">
-        <v>641.6902093340746</v>
+        <v>852.6043145280288</v>
       </c>
       <c r="R11">
-        <v>5775.211884006671</v>
+        <v>7673.438830752259</v>
       </c>
       <c r="S11">
-        <v>0.02067315928023395</v>
+        <v>0.02419935636785035</v>
       </c>
       <c r="T11">
-        <v>0.02067315928023394</v>
+        <v>0.02419935636785035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H12">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I12">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J12">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N12">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O12">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P12">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q12">
-        <v>54.75433087564799</v>
+        <v>238.9568745726641</v>
       </c>
       <c r="R12">
-        <v>492.788977880832</v>
+        <v>2150.611871153977</v>
       </c>
       <c r="S12">
-        <v>0.001764005414153971</v>
+        <v>0.006782281611526512</v>
       </c>
       <c r="T12">
-        <v>0.00176400541415397</v>
+        <v>0.00678228161152651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H13">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I13">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J13">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q13">
-        <v>12.1496286705</v>
+        <v>46.28910349656944</v>
       </c>
       <c r="R13">
-        <v>109.3466580345</v>
+        <v>416.601931469125</v>
       </c>
       <c r="S13">
-        <v>0.0003914212887268467</v>
+        <v>0.001313817549799611</v>
       </c>
       <c r="T13">
-        <v>0.0003914212887268466</v>
+        <v>0.001313817549799611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H14">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I14">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J14">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N14">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q14">
-        <v>2.060361929148</v>
+        <v>6.919984129949444</v>
       </c>
       <c r="R14">
-        <v>18.543257362332</v>
+        <v>62.279857169545</v>
       </c>
       <c r="S14">
-        <v>6.637812096340006E-05</v>
+        <v>0.0001964090014172809</v>
       </c>
       <c r="T14">
-        <v>6.637812096340002E-05</v>
+        <v>0.0001964090014172809</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H15">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I15">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J15">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N15">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O15">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P15">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q15">
-        <v>0.9339862865999999</v>
+        <v>3.269480120618333</v>
       </c>
       <c r="R15">
-        <v>8.405876579399999</v>
+        <v>29.425321085565</v>
       </c>
       <c r="S15">
-        <v>3.008998265451754E-05</v>
+        <v>9.279722519377938E-05</v>
       </c>
       <c r="T15">
-        <v>3.008998265451753E-05</v>
+        <v>9.279722519377938E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H16">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I16">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J16">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N16">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q16">
-        <v>1.588812052176</v>
+        <v>8.042858043087222</v>
       </c>
       <c r="R16">
-        <v>14.299308469584</v>
+        <v>72.38572238778499</v>
       </c>
       <c r="S16">
-        <v>5.118632658440604E-05</v>
+        <v>0.0002282793843336818</v>
       </c>
       <c r="T16">
-        <v>5.118632658440602E-05</v>
+        <v>0.0002282793843336818</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H17">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I17">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J17">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N17">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O17">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P17">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q17">
-        <v>873.4109457534292</v>
+        <v>1371.179774437122</v>
       </c>
       <c r="R17">
-        <v>7860.698511780864</v>
+        <v>12340.6179699341</v>
       </c>
       <c r="S17">
-        <v>0.02813844334230768</v>
+        <v>0.03891801559127784</v>
       </c>
       <c r="T17">
-        <v>0.02813844334230767</v>
+        <v>0.03891801559127783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H18">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I18">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J18">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.120125</v>
       </c>
       <c r="O18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q18">
-        <v>193.8041885993333</v>
+        <v>265.6156371513889</v>
       </c>
       <c r="R18">
-        <v>1744.237697394</v>
+        <v>2390.5407343625</v>
       </c>
       <c r="S18">
-        <v>0.006243736933821043</v>
+        <v>0.007538933771239769</v>
       </c>
       <c r="T18">
-        <v>0.006243736933821041</v>
+        <v>0.007538933771239769</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H19">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I19">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J19">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N19">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q19">
-        <v>32.86575933542934</v>
+        <v>39.70817870538889</v>
       </c>
       <c r="R19">
-        <v>295.791834018864</v>
+        <v>357.3736083484999</v>
       </c>
       <c r="S19">
-        <v>0.001058827246736812</v>
+        <v>0.001127032025098206</v>
       </c>
       <c r="T19">
-        <v>0.001058827246736811</v>
+        <v>0.001127032025098206</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H20">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I20">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J20">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N20">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O20">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P20">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q20">
-        <v>14.89843511653333</v>
+        <v>18.76089575716667</v>
       </c>
       <c r="R20">
-        <v>134.0859160488</v>
+        <v>168.8480618145</v>
       </c>
       <c r="S20">
-        <v>0.0004799788398048873</v>
+        <v>0.0005324880421923349</v>
       </c>
       <c r="T20">
-        <v>0.0004799788398048872</v>
+        <v>0.0005324880421923349</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H21">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I21">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J21">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N21">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q21">
-        <v>25.343855269952</v>
+        <v>46.15144174894444</v>
       </c>
       <c r="R21">
-        <v>228.094697429568</v>
+        <v>415.3629757405</v>
       </c>
       <c r="S21">
-        <v>0.0008164961053631155</v>
+        <v>0.001309910314482789</v>
       </c>
       <c r="T21">
-        <v>0.0008164961053631151</v>
+        <v>0.001309910314482789</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H22">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N22">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O22">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P22">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q22">
-        <v>33.11284075306666</v>
+        <v>150.5341123526582</v>
       </c>
       <c r="R22">
-        <v>298.0155667776</v>
+        <v>1354.807011173924</v>
       </c>
       <c r="S22">
-        <v>0.001066787401695859</v>
+        <v>0.004272589955583956</v>
       </c>
       <c r="T22">
-        <v>0.001066787401695858</v>
+        <v>0.004272589955583956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H23">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.120125</v>
       </c>
       <c r="O23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q23">
-        <v>7.347523254166666</v>
+        <v>29.16044628938889</v>
       </c>
       <c r="R23">
-        <v>66.1277092875</v>
+        <v>262.4440166045</v>
       </c>
       <c r="S23">
-        <v>0.000236713162113294</v>
+        <v>0.000827657120164952</v>
       </c>
       <c r="T23">
-        <v>0.0002367131621132939</v>
+        <v>0.000827657120164952</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H24">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N24">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q24">
-        <v>1.246009865566667</v>
+        <v>4.359337517948889</v>
       </c>
       <c r="R24">
-        <v>11.2140887901</v>
+        <v>39.23403766154</v>
       </c>
       <c r="S24">
-        <v>4.014236159584609E-05</v>
+        <v>0.0001237305046749413</v>
       </c>
       <c r="T24">
-        <v>4.014236159584607E-05</v>
+        <v>0.0001237305046749413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H25">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N25">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O25">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P25">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q25">
-        <v>0.5648309216666666</v>
+        <v>2.059653185086667</v>
       </c>
       <c r="R25">
-        <v>5.083478295</v>
+        <v>18.53687866578</v>
       </c>
       <c r="S25">
-        <v>1.819700447375408E-05</v>
+        <v>5.84588660540396E-05</v>
       </c>
       <c r="T25">
-        <v>1.819700447375407E-05</v>
+        <v>5.84588660540396E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H26">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N26">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q26">
-        <v>0.9608387067999999</v>
+        <v>5.066707113824445</v>
       </c>
       <c r="R26">
-        <v>8.6475483612</v>
+        <v>45.60036402442</v>
       </c>
       <c r="S26">
-        <v>3.095507978671543E-05</v>
+        <v>0.0001438076830831349</v>
       </c>
       <c r="T26">
-        <v>3.095507978671542E-05</v>
+        <v>0.0001438076830831349</v>
       </c>
     </row>
   </sheetData>
